--- a/Data Files/EXCEL FILES/Create_Match.xlsx
+++ b/Data Files/EXCEL FILES/Create_Match.xlsx
@@ -24,18 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Meron Name</t>
-  </si>
-  <si>
-    <t>Wala Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AA</t>
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>Farm 1</t>
+  </si>
+  <si>
+    <t>Farm 2</t>
+  </si>
+  <si>
+    <t>Breed 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breed 2 </t>
+  </si>
+  <si>
+    <t>MeronName</t>
+  </si>
+  <si>
+    <t>WalaName</t>
+  </si>
+  <si>
+    <t>MeronFarm</t>
+  </si>
+  <si>
+    <t>WalaFarm</t>
+  </si>
+  <si>
+    <t>MeronBreed</t>
+  </si>
+  <si>
+    <t>WalaBreed</t>
+  </si>
+  <si>
+    <t>MeronWeight</t>
+  </si>
+  <si>
+    <t>WalaWeight</t>
+  </si>
+  <si>
+    <t>ArenaName_Acronym</t>
+  </si>
+  <si>
+    <t>Arena_Test - A1</t>
   </si>
 </sst>
 </file>
@@ -71,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,32 +392,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/EXCEL FILES/Create_Match.xlsx
+++ b/Data Files/EXCEL FILES/Create_Match.xlsx
@@ -71,7 +71,7 @@
     <t>ArenaName_Acronym</t>
   </si>
   <si>
-    <t>Arena_Test - A1</t>
+    <t>ARENA_TEST - A1</t>
   </si>
 </sst>
 </file>

--- a/Data Files/EXCEL FILES/Create_Match.xlsx
+++ b/Data Files/EXCEL FILES/Create_Match.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.bautista\git\CLICKPLAY\Data Files\EXCEL FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CLICKPLAY\Data Files\EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>AA</t>
   </si>
@@ -71,7 +72,25 @@
     <t>ArenaName_Acronym</t>
   </si>
   <si>
-    <t>ARENA_TEST - A1</t>
+    <t>ARENA_TEST1 - A1</t>
+  </si>
+  <si>
+    <t>ARENA_TEST2 - A2</t>
+  </si>
+  <si>
+    <t>ARENA_TEST3 - A3</t>
+  </si>
+  <si>
+    <t>ARENA_TEST4 - A4</t>
+  </si>
+  <si>
+    <t>ARENA_TEST5 - A5</t>
+  </si>
+  <si>
+    <t>ARENA_TEST6 - A6</t>
+  </si>
+  <si>
+    <t>ARENA_TEST1 - TEST1</t>
   </si>
 </sst>
 </file>
@@ -392,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +488,228 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
